--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value307.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value307.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.09117732279318</v>
+        <v>1.03641152381897</v>
       </c>
       <c r="B1">
-        <v>1.112960563376236</v>
+        <v>2.049863576889038</v>
       </c>
       <c r="C1">
-        <v>1.208079718365434</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.741619560034857</v>
+        <v>1.844972968101501</v>
       </c>
       <c r="E1">
-        <v>3.694228223949113</v>
+        <v>1.179885029792786</v>
       </c>
     </row>
   </sheetData>
